--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -175,6 +175,9 @@
     <t xml:space="preserve">Modifier les &lt;alt&gt; des balises img de tout le site afin d’y ajouter une description d’image et non des mots clefs.</t>
   </si>
   <si>
+    <t xml:space="preserve">Accessibilité/Performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">footer beaucoup trop dense</t>
   </si>
   <si>
@@ -211,6 +214,9 @@
     <t xml:space="preserve">Adapté le site aux téléphones</t>
   </si>
   <si>
+    <t xml:space="preserve">SEO/Accessibilité/Performance </t>
+  </si>
+  <si>
     <t xml:space="preserve">image beaucoup trop lourde, par conséquent chargement long</t>
   </si>
   <si>
@@ -221,6 +227,33 @@
   </si>
   <si>
     <t xml:space="preserve">Changer le format des images et les redimensionner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio code/texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le ratio code/texte du site n’est pas optimal, c’est à dire qu’il y a plus de code que de texte. Google aura plus de mal à le décoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire en sorte d’avoir plus de texte que de code sur le site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voir pour inverser le ration code/texte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bootstrap 3 est utilisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une ancienne version de bootstrap est utilisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser la dernière version en vigueur de bootstrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier le code afin d’utiliser la dernière version de bootstrap (4).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sémantique des balises non respecté</t>
   </si>
 </sst>
 </file>
@@ -436,9 +469,9 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,19 +707,19 @@
     </row>
     <row r="12" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -695,16 +728,16 @@
         <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -713,38 +746,74 @@
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="19" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -58,10 +58,10 @@
     <t xml:space="preserve">Accessibilité et SEO</t>
   </si>
   <si>
-    <t xml:space="preserve">Pas de meta pour présentation réseaux sociaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorsque l’on partage le site web sur un reseau social comme twitter par exemple, le partage ne sera pas effectif et bien présenté </t>
+    <t xml:space="preserve">Pas de balise pour présentation réseaux sociaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorsque l’on partage le site web sur un reseau social comme twitter par exemple, le partage ne sera pas effectif et bien présenté</t>
   </si>
   <si>
     <t xml:space="preserve">Toujours réserver une place dans &lt;head&gt; afin de présenter la Chouette Agence sur les réseaux sociaux</t>
@@ -160,6 +160,9 @@
     <t xml:space="preserve">Changer le h1 du bloc 1 afin de mettre quelques mots clefs</t>
   </si>
   <si>
+    <t xml:space="preserve">SEO QUAKE</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEO et Accessibilité</t>
   </si>
   <si>
@@ -229,6 +232,9 @@
     <t xml:space="preserve">Changer le format des images et les redimensionner</t>
   </si>
   <si>
+    <t xml:space="preserve">PAGESPEED INSIGHT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ratio code/texte</t>
   </si>
   <si>
@@ -254,6 +260,57 @@
   </si>
   <si>
     <t xml:space="preserve">Sémantique des balises non respecté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La sémantique des balises n’est pas respecté donc problème concernant la lecture pour les mal voyants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respecter la sémantique des balises et ne pas juste mettre &lt;div&gt; partout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer certains &lt;div&gt; en section, article… etc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise langage manquant ou invalide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La balise langage en dessous de doctype est invalide (default)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toujours insérer le langage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacer default par fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contraste est trop bas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte sur les images ou les fonds en couleur manque de contraste et peuvent être illisibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire en sorte que la couleur du texte et de l’image fonctionnent ensemble et permettent une lecture fluide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer la couleur du texte ou du fond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de width et height sur les images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images n’ont pas de width et height explicite sur les images. S’adaptent-t-elle a tous les écrans ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préferer mettre une width et height explicites sur les images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre des width et height explicites sur les images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagespeed insight</t>
   </si>
 </sst>
 </file>
@@ -316,7 +373,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +384,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -364,7 +427,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -386,6 +449,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -443,7 +514,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -469,9 +540,9 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -544,130 +615,130 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -685,94 +756,99 @@
       <c r="E10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>68</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -780,30 +856,33 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -811,18 +890,84 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -373,7 +373,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,12 +384,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -452,11 +446,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,7 +508,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -542,7 +536,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -741,22 +735,22 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -43,16 +43,28 @@
     <t xml:space="preserve">SEO</t>
   </si>
   <si>
+    <t xml:space="preserve">Vitesse du site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La page index se charge beaucoup trop lentement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire en sorte que la page index se charge en une seconde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openclassroom, cours sur le SEO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keywords</t>
   </si>
   <si>
-    <t xml:space="preserve">Keywords éparpillés dans body et répétitifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne pas mettre de balise mots clefs dans le body et ne pas les répéter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rassembler les mots clefs dans &lt;head&gt; dans une meta, les adapter sans les répéter</t>
+    <t xml:space="preserve">Keywords éparpillés dans body et obsolètes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas mettre de balise mots clefs dans le site, les keywords sont désormais obsolète</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitions.seo.com</t>
   </si>
   <si>
     <t xml:space="preserve">Accessibilité et SEO</t>
@@ -67,7 +79,7 @@
     <t xml:space="preserve">Toujours réserver une place dans &lt;head&gt; afin de présenter la Chouette Agence sur les réseaux sociaux</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajouter une balise meta dans &lt;head&gt; afin de pouvoir partager le site de la Chouette Agence de notre propre façon</t>
+    <t xml:space="preserve">Openclassroom</t>
   </si>
   <si>
     <t xml:space="preserve">Pas de meta description</t>
@@ -79,30 +91,24 @@
     <t xml:space="preserve">Toujours mettre une meta description afin que google puisse référencer correctement le site avec des mots clefs entre 14 et 40 caractères</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajouter une meta description avec des mots clefs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pas d’autorisation d’indexation moteur de recherche</t>
   </si>
   <si>
     <t xml:space="preserve">Le site de la chouette agence, ne signale pas autoriser les différents moteurs de recherche a indexer son site</t>
   </si>
   <si>
-    <t xml:space="preserve">Signaler aux différents moteurs de recherche, que l’on les autorise à indexer notre site</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ajouter une balise meta dans &lt;head&gt; signalant l’autorisation d’indexation</t>
   </si>
   <si>
+    <t xml:space="preserve">Alsacréation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pas de title dans les meta</t>
   </si>
   <si>
     <t xml:space="preserve">Pas de title dans les meta donc pas de référencement google</t>
   </si>
   <si>
-    <t xml:space="preserve">Toujours mettre un titre au site</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ajouter une balise meta title dans le &lt;head&gt;</t>
   </si>
   <si>
@@ -112,9 +118,6 @@
     <t xml:space="preserve">La page 2 du site s’appelle simplement page 2, n’indique pas au potentiel client à quoi correspond cette page, ni a google.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nommer les pages en fonction de leur utilité</t>
-  </si>
-  <si>
     <t xml:space="preserve">Changer le nom « page 2 » en « contact »</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
     <t xml:space="preserve">Le menu du site est presque vide, n’est pas attractif</t>
   </si>
   <si>
-    <t xml:space="preserve">Vérifier que le menu donne envie au client de naviguer sur la page</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ajouter les différentes section de la page d’accueil dans le menu, comme les services proposés ou le portfolio</t>
   </si>
   <si>
@@ -142,9 +142,6 @@
     <t xml:space="preserve">Google ne repère pas le texte sur les images lors de l’indexation des mots clefs.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ne pas mettre de texte sur une image, préférer le taper</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enlever les images « title » et « title2 » du code HTML et taper directement les phrases</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t xml:space="preserve">Essayer de mettre le plus de mots clefs possible, de synonymes sur la page web afin de permettre a google de vérifier que vous traitez ce sujet, lors des recherches clients</t>
   </si>
   <si>
-    <t xml:space="preserve">Changer le h1 du bloc 1 afin de mettre quelques mots clefs</t>
-  </si>
-  <si>
     <t xml:space="preserve">SEO QUAKE</t>
   </si>
   <si>
@@ -172,12 +166,12 @@
     <t xml:space="preserve">Dans les balises img, &lt;alt&gt; est mal rempli, le créateur y a mis des mots clefs.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ne pas mettre de mots clefs dans &lt;alt&gt;, décrire plutôt l’image concernée</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modifier les &lt;alt&gt; des balises img de tout le site afin d’y ajouter une description d’image et non des mots clefs.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://s3-eu-west-1.amazonaws.com/course.oc-static.com/courses/6691346/Guide+de+test+d'accessibilite%CC%81+des+WCAG.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Accessibilité/Performance</t>
   </si>
   <si>
@@ -190,19 +184,13 @@
     <t xml:space="preserve">Faire un footer concis</t>
   </si>
   <si>
-    <t xml:space="preserve">Trouver un moyen d’alléger le footer tout en laissant les partenaires ou les secteurs d’activités </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page contact beaucoup trop simple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La page 2 ou page contact est beaucoup trop sobre. Pas attractif pour le client, ne fait pas professionnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donner envie au client de cliquer, de contacter l’entreprise. Faire en sorte que les pages web soient attractives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refaire la page contact, mettre quelques explications sur la bannière et refaire le formulaire plus proprement.</t>
+    <t xml:space="preserve">Formulaire beaucoup trop simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le formulaire de la page contact ne contient aucun descriptif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refaire le formulaire de façon plus complète, en indiquant la marche à suivre au client</t>
   </si>
   <si>
     <t xml:space="preserve">Non responsive</t>
@@ -214,9 +202,6 @@
     <t xml:space="preserve">Etant donné que 58 % des recherches google sont réalisées sur smartphone, toujours faire en sorte que le site soit responsive</t>
   </si>
   <si>
-    <t xml:space="preserve">Adapté le site aux téléphones</t>
-  </si>
-  <si>
     <t xml:space="preserve">SEO/Accessibilité/Performance </t>
   </si>
   <si>
@@ -229,9 +214,6 @@
     <t xml:space="preserve">Mettre des images légères format png ou jpg afin que le chargement de la page soit plus rapide</t>
   </si>
   <si>
-    <t xml:space="preserve">Changer le format des images et les redimensionner</t>
-  </si>
-  <si>
     <t xml:space="preserve">PAGESPEED INSIGHT</t>
   </si>
   <si>
@@ -244,42 +226,24 @@
     <t xml:space="preserve">Faire en sorte d’avoir plus de texte que de code sur le site</t>
   </si>
   <si>
-    <t xml:space="preserve">Voir pour inverser le ration code/texte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bootstrap 3 est utilisé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une ancienne version de bootstrap est utilisé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utiliser la dernière version en vigueur de bootstrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modifier le code afin d’utiliser la dernière version de bootstrap (4).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sémantique des balises non respecté</t>
   </si>
   <si>
     <t xml:space="preserve">La sémantique des balises n’est pas respecté donc problème concernant la lecture pour les mal voyants</t>
   </si>
   <si>
-    <t xml:space="preserve">Respecter la sémantique des balises et ne pas juste mettre &lt;div&gt; partout</t>
-  </si>
-  <si>
     <t xml:space="preserve">Changer certains &lt;div&gt; en section, article… etc </t>
   </si>
   <si>
+    <t xml:space="preserve">Accessibilité/SEO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Balise langage manquant ou invalide</t>
   </si>
   <si>
     <t xml:space="preserve">La balise langage en dessous de doctype est invalide (default)</t>
   </si>
   <si>
-    <t xml:space="preserve">Toujours insérer le langage </t>
-  </si>
-  <si>
     <t xml:space="preserve">Remplacer default par fr</t>
   </si>
   <si>
@@ -292,25 +256,28 @@
     <t xml:space="preserve">Le texte sur les images ou les fonds en couleur manque de contraste et peuvent être illisibles</t>
   </si>
   <si>
-    <t xml:space="preserve">Faire en sorte que la couleur du texte et de l’image fonctionnent ensemble et permettent une lecture fluide</t>
-  </si>
-  <si>
     <t xml:space="preserve">Changer la couleur du texte ou du fond</t>
   </si>
   <si>
-    <t xml:space="preserve">Pas de width et height sur les images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les images n’ont pas de width et height explicite sur les images. S’adaptent-t-elle a tous les écrans ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Préferer mettre une width et height explicites sur les images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre des width et height explicites sur les images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pagespeed insight</t>
+    <t xml:space="preserve">Pas de focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site n’est pas navigable par clavier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre des focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developers.google.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les liens n’ont pas de liens valides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les liens ne renvoient à rien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter une Url valide</t>
   </si>
 </sst>
 </file>
@@ -320,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -363,6 +330,18 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -421,7 +400,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -438,7 +417,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -446,7 +425,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,24 +532,24 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="51.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="10.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="11.28"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,378 +589,402 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="6" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+    </row>
+    <row r="4" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6" t="s">
+    </row>
+    <row r="6" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="10" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" s="12" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="C18" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="D18" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="F18" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="C19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="7" t="s">
+    <row r="22" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1930,13 +1953,16 @@
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1" display="https://s3-eu-west-1.amazonaws.com/course.oc-static.com/courses/6691346/Guide+de+test+d'accessibilite%CC%81+des+WCAG.pdf"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ajouter une Url valide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre une balise pour google analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous n’avons aucune visibilité de la fréquentation du site et de ses fluctuations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afin de suivre la fréquentation du site, inscrire le site sur le site de google analytics</t>
   </si>
 </sst>
 </file>
@@ -287,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -351,6 +360,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -400,7 +415,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,15 +456,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -535,7 +542,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -627,7 +634,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -645,7 +652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -663,7 +670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -681,7 +688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -699,7 +706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -717,7 +724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -735,7 +742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
@@ -753,7 +760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
@@ -772,24 +779,24 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -807,7 +814,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
@@ -823,7 +830,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
@@ -854,12 +861,12 @@
       <c r="D15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>60</v>
       </c>
@@ -894,24 +901,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" s="12" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+    <row r="18" s="9" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" s="10" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
         <v>71</v>
       </c>
@@ -980,7 +987,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -43,6 +43,213 @@
     <t xml:space="preserve">SEO</t>
   </si>
   <si>
+    <t xml:space="preserve">Keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords éparpillés dans body et obsolètes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas mettre de balise mots clefs dans le site, les keywords sont désormais obsolète</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitions.seo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de balise pour présentation réseaux sociaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorsque l’on partage le site web sur un reseau social comme twitter par exemple, le partage ne sera pas effectif et bien présenté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toujours réserver une place dans &lt;head&gt; afin de présenter la Chouette Agence sur les réseaux sociaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openclassroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de meta description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de meta description donc mauvais référencement Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toujours mettre une meta description afin que google puisse référencer correctement le site avec des mots clefs entre 14 et 40 caractères</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas d’autorisation d’indexation moteur de recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site de la chouette agence, ne signale pas autoriser les différents moteurs de recherche a indexer son site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter une balise meta dans &lt;head&gt; signalant l’autorisation d’indexation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alsacréation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de title dans les meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de title dans les meta donc pas de référencement google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter une balise meta title dans le &lt;head&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre une balise pour google analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous n’avons aucune visibilité de la fréquentation du site et de ses fluctuations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afin de suivre la fréquentation du site, inscrire le site sur le site de google analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio code/texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le ratio code/texte du site n’est pas optimal, c’est à dire qu’il y a plus de code que de texte. Google aura plus de mal à le décoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire en sorte d’avoir plus de texte que de code sur le site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte sur les images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google ne repère pas le texte sur les images lors de l’indexation des mots clefs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enlever les images « title » et « title2 » du code HTML et taper directement les phrases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diversité de mots clefs non utilisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les mots clefs ne sont pas utilisés sur les pages de la chouette agence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essayer de mettre le plus de mots clefs possible, de synonymes sur la page web afin de permettre a google de vérifier que vous traitez ce sujet, lors des recherches clients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO QUAKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCESSIBILITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images sont mal décrites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans les balises img, &lt;alt&gt; est mal rempli, le créateur y a mis des mots clefs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier les &lt;alt&gt; des balises img de tout le site afin d’y ajouter une description d’image et non des mots clefs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de nom à la page 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La page 2 du site s’appelle simplement page 2, n’indique pas au potentiel client à quoi correspond cette page, ni a google.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer le nom « page 2 » en « contact »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu du site un peu trop épurée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le menu du site est presque vide, n’est pas attractif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter les différentes section de la page d’accueil dans le menu, comme les services proposés ou le portfolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulaire beaucoup trop simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le formulaire de la page contact ne contient aucun descriptif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refaire le formulaire de façon plus complète, en indiquant la marche à suivre au client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sémantique des balises non respecté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La sémantique des balises n’est pas respecté donc problème concernant la lecture pour les mal voyants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer certains &lt;div&gt; en section, article… etc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise langage manquant ou invalide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La balise langage en dessous de doctype est invalide (default)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacer default par fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contraste est trop bas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte sur les images ou les fonds en couleur manque de contraste et peuvent être illisibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer la couleur du texte ou du fond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les liens n’ont pas de liens valides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les liens ne renvoient à rien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter une Url valide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERFORMANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer beaucoup trop dense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’annuaire présent dans le footer est beaucoup trop dense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire un footer concis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image beaucoup trop lourde, par conséquent chargement long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">les images sont au format bmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre des images légères format png ou jpg afin que le chargement de la page soit plus rapide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGESPEED INSIGHT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vitesse du site </t>
   </si>
   <si>
@@ -52,241 +259,13 @@
     <t xml:space="preserve">Faire en sorte que la page index se charge en une seconde</t>
   </si>
   <si>
-    <t xml:space="preserve">Openclassroom, cours sur le SEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keywords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keywords éparpillés dans body et obsolètes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne pas mettre de balise mots clefs dans le site, les keywords sont désormais obsolète</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definitions.seo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessibilité et SEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de balise pour présentation réseaux sociaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorsque l’on partage le site web sur un reseau social comme twitter par exemple, le partage ne sera pas effectif et bien présenté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toujours réserver une place dans &lt;head&gt; afin de présenter la Chouette Agence sur les réseaux sociaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Openclassroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de meta description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de meta description donc mauvais référencement Google</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toujours mettre une meta description afin que google puisse référencer correctement le site avec des mots clefs entre 14 et 40 caractères</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas d’autorisation d’indexation moteur de recherche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le site de la chouette agence, ne signale pas autoriser les différents moteurs de recherche a indexer son site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter une balise meta dans &lt;head&gt; signalant l’autorisation d’indexation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alsacréation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de title dans les meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de title dans les meta donc pas de référencement google</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter une balise meta title dans le &lt;head&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de nom à la page 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La page 2 du site s’appelle simplement page 2, n’indique pas au potentiel client à quoi correspond cette page, ni a google.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changer le nom « page 2 » en « contact »</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessibilité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu du site un peu trop épurée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le menu du site est presque vide, n’est pas attractif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter les différentes section de la page d’accueil dans le menu, comme les services proposés ou le portfolio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texte sur les images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google ne repère pas le texte sur les images lors de l’indexation des mots clefs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enlever les images « title » et « title2 » du code HTML et taper directement les phrases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diversité de mots clefs non utilisé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les mots clefs ne sont pas utilisés sur les pages de la chouette agence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essayer de mettre le plus de mots clefs possible, de synonymes sur la page web afin de permettre a google de vérifier que vous traitez ce sujet, lors des recherches clients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO QUAKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO et Accessibilité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les images sont mal décrites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans les balises img, &lt;alt&gt; est mal rempli, le créateur y a mis des mots clefs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modifier les &lt;alt&gt; des balises img de tout le site afin d’y ajouter une description d’image et non des mots clefs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://s3-eu-west-1.amazonaws.com/course.oc-static.com/courses/6691346/Guide+de+test+d'accessibilite%CC%81+des+WCAG.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessibilité/Performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">footer beaucoup trop dense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’annuaire présent dans le footer est beaucoup trop dense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire un footer concis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulaire beaucoup trop simple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le formulaire de la page contact ne contient aucun descriptif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refaire le formulaire de façon plus complète, en indiquant la marche à suivre au client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non responsive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le site n’est pas ergonomique pour les téléphones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etant donné que 58 % des recherches google sont réalisées sur smartphone, toujours faire en sorte que le site soit responsive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO/Accessibilité/Performance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">image beaucoup trop lourde, par conséquent chargement long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">les images sont au format bmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre des images légères format png ou jpg afin que le chargement de la page soit plus rapide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAGESPEED INSIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio code/texte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le ratio code/texte du site n’est pas optimal, c’est à dire qu’il y a plus de code que de texte. Google aura plus de mal à le décoder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire en sorte d’avoir plus de texte que de code sur le site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sémantique des balises non respecté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La sémantique des balises n’est pas respecté donc problème concernant la lecture pour les mal voyants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changer certains &lt;div&gt; en section, article… etc </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessibilité/SEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balise langage manquant ou invalide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La balise langage en dessous de doctype est invalide (default)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remplacer default par fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le contraste est trop bas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le texte sur les images ou les fonds en couleur manque de contraste et peuvent être illisibles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changer la couleur du texte ou du fond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le site n’est pas navigable par clavier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre des focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developers.google.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les liens n’ont pas de liens valides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les liens ne renvoient à rien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter une Url valide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre une balise pour google analytics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nous n’avons aucune visibilité de la fréquentation du site et de ses fluctuations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afin de suivre la fréquentation du site, inscrire le site sur le site de google analytics</t>
+    <t xml:space="preserve">CDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bootstrap, google map et jquery sont beaucoup trop long à charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser un CDN</t>
   </si>
 </sst>
 </file>
@@ -296,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -336,7 +315,28 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="44"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="44"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -352,19 +352,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -415,7 +402,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -432,8 +419,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -444,7 +431,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -452,11 +439,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -537,12 +532,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -596,413 +591,1467 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" s="6" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>19</v>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>26</v>
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>19</v>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>26</v>
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>19</v>
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>44</v>
+      <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>19</v>
+      <c r="C14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
+      <c r="A15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" s="7" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" s="9" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>75</v>
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>19</v>
+      <c r="A23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="12" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1972,7 +3021,7 @@
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1980,9 +3029,11 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" display="https://s3-eu-west-1.amazonaws.com/course.oc-static.com/courses/6691346/Guide+de+test+d'accessibilite%CC%81+des+WCAG.pdf"/>
-  </hyperlinks>
+  <mergeCells count="3">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A21:F21"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
